--- a/2º Ano/1º Semestre/ArqComp/Guiões PL/GEMM-results.xlsx
+++ b/2º Ano/1º Semestre/ArqComp/Guiões PL/GEMM-results.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">n = 1024</t>
   </si>
   <si>
-    <t xml:space="preserve">Texec (ps)</t>
+    <t xml:space="preserve">Texec (s)</t>
   </si>
   <si>
     <t xml:space="preserve">Ganho</t>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">CPI</t>
   </si>
   <si>
-    <t xml:space="preserve">#I (G)</t>
+    <t xml:space="preserve">#I</t>
   </si>
   <si>
     <t xml:space="preserve">P02</t>
@@ -673,14 +673,20 @@
                 <c:pt idx="3">
                   <c:v>18.1357311862877</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.7112676056338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.6442953020134</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="25399035"/>
-        <c:axId val="56914877"/>
+        <c:axId val="27908084"/>
+        <c:axId val="59024629"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -694,7 +700,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Texec (ps)</c:v>
+                  <c:v>Texec (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -799,6 +805,12 @@
                 <c:pt idx="3">
                   <c:v>0.711303</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.596</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -812,11 +824,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="65979385"/>
-        <c:axId val="28949381"/>
+        <c:axId val="1060546"/>
+        <c:axId val="97464607"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65979385"/>
+        <c:axId val="1060546"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +860,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28949381"/>
+        <c:crossAx val="97464607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28949381"/>
+        <c:axId val="97464607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,12 +941,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65979385"/>
+        <c:crossAx val="1060546"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="25399035"/>
+        <c:axId val="27908084"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,14 +978,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56914877"/>
+        <c:crossAx val="59024629"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56914877"/>
+        <c:axId val="59024629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1037,7 +1049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25399035"/>
+        <c:crossAx val="27908084"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1257,6 +1269,12 @@
                 <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1270,11 +1288,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="52803906"/>
-        <c:axId val="91312506"/>
+        <c:axId val="48861875"/>
+        <c:axId val="95960892"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52803906"/>
+        <c:axId val="48861875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1324,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91312506"/>
+        <c:crossAx val="95960892"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,7 +1332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91312506"/>
+        <c:axId val="95960892"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1371,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52803906"/>
+        <c:crossAx val="48861875"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,7 +1452,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#I (G)</c:v>
+                  <c:v>#I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1548,6 +1566,12 @@
                 <c:pt idx="3">
                   <c:v>6449802796</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>4303000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3646000000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1561,11 +1585,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="22535718"/>
-        <c:axId val="23682736"/>
+        <c:axId val="33922186"/>
+        <c:axId val="85056070"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="22535718"/>
+        <c:axId val="33922186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1621,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23682736"/>
+        <c:crossAx val="85056070"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1605,7 +1629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23682736"/>
+        <c:axId val="85056070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1668,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22535718"/>
+        <c:crossAx val="33922186"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1683,9 +1707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>491400</xdr:colOff>
+      <xdr:colOff>490320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1694,7 +1718,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7958880" y="19080"/>
-        <a:ext cx="5815800" cy="2904120"/>
+        <a:ext cx="5814720" cy="2903040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1713,9 +1737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
+      <xdr:colOff>245880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1724,7 +1748,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2743200" y="2862000"/>
-        <a:ext cx="6850080" cy="2847240"/>
+        <a:ext cx="6849000" cy="2846160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1743,9 +1767,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>214920</xdr:colOff>
+      <xdr:colOff>213840</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1754,7 +1778,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9866880" y="2890800"/>
-        <a:ext cx="5993640" cy="2837520"/>
+        <a:ext cx="5992560" cy="2836440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1774,8 +1798,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1893,26 +1917,38 @@
       <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="str">
+      <c r="C7" s="13" t="n">
+        <v>0.568</v>
+      </c>
+      <c r="D7" s="14" t="n">
         <f aca="false">IF(AND(ISNUMBER(C$3),ISNUMBER(C7),C$3&lt;&gt;0),C$3/C7,"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+        <v>22.7112676056338</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="16" t="n">
+        <v>4303000000</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17"/>
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="str">
+      <c r="C8" s="13" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="D8" s="14" t="n">
         <f aca="false">IF(AND(ISNUMBER(C$3),ISNUMBER(C8),C$3&lt;&gt;0),C$3/C8,"")</f>
-        <v/>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+        <v>21.6442953020134</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="16" t="n">
+        <v>3646000000</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
